--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H2">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N2">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q2">
-        <v>0.8922026105640002</v>
+        <v>0.06906840457599998</v>
       </c>
       <c r="R2">
-        <v>8.029823495076002</v>
+        <v>0.6216156411839999</v>
       </c>
       <c r="S2">
-        <v>0.0001639121693468848</v>
+        <v>1.095765936462566E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001639121693468848</v>
+        <v>1.095765936462566E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H3">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I3">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J3">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P3">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q3">
-        <v>2.815970497308</v>
+        <v>0.9172207915159999</v>
       </c>
       <c r="R3">
-        <v>25.343734475772</v>
+        <v>8.254987123644</v>
       </c>
       <c r="S3">
-        <v>0.0005173397024010059</v>
+        <v>0.000145516507255143</v>
       </c>
       <c r="T3">
-        <v>0.000517339702401006</v>
+        <v>0.000145516507255143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H4">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I4">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J4">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N4">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O4">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P4">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q4">
-        <v>1.715406216444</v>
+        <v>1.049760600518</v>
       </c>
       <c r="R4">
-        <v>15.438655947996</v>
+        <v>9.447845404661999</v>
       </c>
       <c r="S4">
-        <v>0.0003151480963171855</v>
+        <v>0.0001665438653968586</v>
       </c>
       <c r="T4">
-        <v>0.0003151480963171855</v>
+        <v>0.0001665438653968586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I5">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J5">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N5">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q5">
-        <v>891.0369568433947</v>
+        <v>211.770694861376</v>
       </c>
       <c r="R5">
-        <v>8019.332611590552</v>
+        <v>1905.936253752384</v>
       </c>
       <c r="S5">
-        <v>0.1636980197492604</v>
+        <v>0.03359728883193829</v>
       </c>
       <c r="T5">
-        <v>0.1636980197492604</v>
+        <v>0.03359728883193828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I6">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J6">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>24.175986</v>
       </c>
       <c r="O6">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P6">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q6">
         <v>2812.291460227816</v>
@@ -818,10 +818,10 @@
         <v>25310.62314205034</v>
       </c>
       <c r="S6">
-        <v>0.5166638032926861</v>
+        <v>0.4461682884438617</v>
       </c>
       <c r="T6">
-        <v>0.5166638032926862</v>
+        <v>0.4461682884438616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I7">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J7">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N7">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O7">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P7">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q7">
-        <v>1713.165055507154</v>
+        <v>3218.671882961668</v>
       </c>
       <c r="R7">
-        <v>15418.48549956439</v>
+        <v>28968.04694665501</v>
       </c>
       <c r="S7">
-        <v>0.3147363585048721</v>
+        <v>0.5106402893841795</v>
       </c>
       <c r="T7">
-        <v>0.3147363585048722</v>
+        <v>0.5106402893841795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H8">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I8">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J8">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N8">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O8">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P8">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q8">
-        <v>3.497013929588889</v>
+        <v>1.982369649664</v>
       </c>
       <c r="R8">
-        <v>31.4731253663</v>
+        <v>17.841326846976</v>
       </c>
       <c r="S8">
-        <v>0.0006424584871734935</v>
+        <v>0.0003145017101399568</v>
       </c>
       <c r="T8">
-        <v>0.0006424584871734935</v>
+        <v>0.0003145017101399568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H9">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I9">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J9">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>24.175986</v>
       </c>
       <c r="O9">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P9">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q9">
-        <v>11.03727778623333</v>
+        <v>26.325650205824</v>
       </c>
       <c r="R9">
-        <v>99.33550007610002</v>
+        <v>236.930851852416</v>
       </c>
       <c r="S9">
-        <v>0.00202772792211631</v>
+        <v>0.004176548007421964</v>
       </c>
       <c r="T9">
-        <v>0.002027727922116311</v>
+        <v>0.004176548007421963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H10">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I10">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J10">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N10">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O10">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P10">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q10">
-        <v>6.723584265255555</v>
+        <v>30.129746975552</v>
       </c>
       <c r="R10">
-        <v>60.5122583873</v>
+        <v>271.167722779968</v>
       </c>
       <c r="S10">
-        <v>0.001235232075826305</v>
+        <v>0.004780065590441924</v>
       </c>
       <c r="T10">
-        <v>0.001235232075826305</v>
+        <v>0.004780065590441922</v>
       </c>
     </row>
   </sheetData>
